--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476CDCD4-063A-473B-8780-27BAEBCFB9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FDE9732F-7335-486F-AE98-BBBFEB0D077D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商品リスト" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="納品書" sheetId="2" r:id="rId3"/>
     <sheet name="請求書" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -282,7 +281,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,25 +430,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -456,53 +446,80 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -524,8 +541,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -550,12 +565,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A0E1CE5-14D3-4F9F-8334-E07AD2A99B08}" name="テーブル2" displayName="テーブル2" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{5A0E1CE5-14D3-4F9F-8334-E07AD2A99B08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5589C123-DA4B-4E93-B08B-00D7AF7FF184}" name="注文番号"/>
-    <tableColumn id="2" xr3:uid="{6D2765AD-A908-4253-AEF1-15CA6AA7CDD2}" name="商品名"/>
-    <tableColumn id="3" xr3:uid="{E7C849AD-832B-4831-83D9-9B519B97FAA0}" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
+    <tableColumn id="1" name="注文番号"/>
+    <tableColumn id="2" name="商品名"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,11 +872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600A91D-ABAD-4A60-8ED2-CE16F3B9CF07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -991,10 +1006,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE7A5A9-99D3-4C29-A947-446FF54CC70A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1005,19 +1020,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="8"/>
       <c r="D3" t="s">
         <v>19</v>
       </c>
@@ -1026,12 +1041,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="D4" s="11">
         <v>44677</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1039,150 +1054,150 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>1001</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>15900</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>31800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <v>1002</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>19900</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>39800</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>2001</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>9800</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>78400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>3002</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>26700</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>26700</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="7">
+      <c r="D17" s="12"/>
+      <c r="E17" s="3">
         <v>176700</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="4">
         <v>0.1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>17670</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="7">
+      <c r="D19" s="14"/>
+      <c r="E19" s="3">
         <v>194370</v>
       </c>
     </row>
@@ -1205,10 +1220,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAD5C54-871A-4AE2-980F-D0F85DD1F6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1219,19 +1234,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="8"/>
       <c r="D3" t="s">
         <v>19</v>
       </c>
@@ -1240,12 +1255,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="D4" s="11">
         <v>44677</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1253,148 +1268,148 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>1001</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>15900</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>31800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <v>1002</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>19900</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>39800</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>2001</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>9800</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>78400</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>3002</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>26700</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>26700</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="7">
+      <c r="D17" s="17"/>
+      <c r="E17" s="3">
         <v>176700</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="4">
         <v>0.1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>17670</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="7">
+      <c r="D19" s="19"/>
+      <c r="E19" s="3">
         <v>194370</v>
       </c>
     </row>
@@ -1403,13 +1418,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1417,11 +1432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A56D90-96C1-439A-912F-D2011B8415F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1431,33 +1446,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="26"/>
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="27">
         <v>100123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="3">
-        <v>44677</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="D4" s="25">
+        <f ca="1">TODAY()</f>
+        <v>45146</v>
+      </c>
+      <c r="E4" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1465,167 +1481,175 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
-        <v>1001</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7">
-        <v>15900</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="A11" s="28">
+        <v>1002</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル2[],2,FALSE))</f>
+        <v>ラウンドテーブル</v>
+      </c>
+      <c r="C11" s="2">
+        <f>VLOOKUP(A11,テーブル2[],3,FALSE)</f>
+        <v>19900</v>
+      </c>
+      <c r="D11" s="28">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
-        <v>31800</v>
+      <c r="E11" s="3">
+        <f>C11*D11</f>
+        <v>39800</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>1002</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7">
-        <v>19900</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="A12" s="28"/>
+      <c r="B12" s="2" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル2[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="28">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
+        <f>C12*D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+      <c r="B13" s="2" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル2[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="28">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E12:E14" si="0">C13*D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+      <c r="B14" s="2" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル2[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="28"/>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル2[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="28"/>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル2[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="3">
+        <f>SUM(E11:E16)</f>
         <v>39800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9800</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7">
-        <v>78400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
-        <v>3002</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7">
-        <v>26700</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>26700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7">
-        <v>176700</v>
-      </c>
-    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="4">
         <v>0.1</v>
       </c>
-      <c r="E18" s="7">
-        <v>17670</v>
+      <c r="E18" s="3">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>3980</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="7">
-        <v>194370</v>
+      <c r="D19" s="24"/>
+      <c r="E19" s="3">
+        <f>SUM(E17:E18)</f>
+        <v>43780</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E20" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>